--- a/09_MPEC_Bidding_Diagonalization/MatlabCode/V02/Test_02/Inflexible Consumption.xlsx
+++ b/09_MPEC_Bidding_Diagonalization/MatlabCode/V02/Test_02/Inflexible Consumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PyomoModels\09_MPEC_Bidding_Diagonalization\MatlabCode\V02\Test_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2983E0-32DC-49C7-890F-49348FFD788E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4CBFF8-CA59-43A2-BB44-BB0926E1B1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="23550" windowHeight="8115" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,76 +567,76 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5.0818873607441288</v>
+        <v>1.6225770244393911E-3</v>
       </c>
       <c r="C2">
-        <v>9.0443811502832165</v>
+        <v>3.1425647523702438E-3</v>
       </c>
       <c r="D2">
-        <v>11.226809243740121</v>
+        <v>3.736842006201863E-3</v>
       </c>
       <c r="E2">
-        <v>11.924020024744911</v>
+        <v>3.966626142781789E-3</v>
       </c>
       <c r="F2">
-        <v>11.85651133017852</v>
+        <v>4.1014964826138972E-3</v>
       </c>
       <c r="G2">
-        <v>11.890854106627771</v>
+        <v>4.0456779666181294E-3</v>
       </c>
       <c r="H2">
-        <v>11.81921533254677</v>
+        <v>4.0089242704118557E-3</v>
       </c>
       <c r="I2">
-        <v>9.8342129250209371</v>
+        <v>3.221084847479308E-3</v>
       </c>
       <c r="J2">
-        <v>5.6726265169759724</v>
+        <v>1.7320738833049561E-3</v>
       </c>
       <c r="K2">
-        <v>2.1872808167781592</v>
+        <v>6.8998086860718214E-4</v>
       </c>
       <c r="L2">
-        <v>2.3831664487925162</v>
+        <v>6.8339139456035194E-4</v>
       </c>
       <c r="M2">
-        <v>2.080679368262861</v>
+        <v>6.6865009380040117E-4</v>
       </c>
       <c r="N2">
-        <v>1.92670481272355</v>
+        <v>6.0764902583534009E-4</v>
       </c>
       <c r="O2">
-        <v>2.001856227225935</v>
+        <v>6.3596608488123286E-4</v>
       </c>
       <c r="P2">
-        <v>2.1123505317914648</v>
+        <v>6.9374705059473943E-4</v>
       </c>
       <c r="Q2">
-        <v>2.9883673675049809</v>
+        <v>9.4847040897163605E-4</v>
       </c>
       <c r="R2">
-        <v>6.6493061672060119</v>
+        <v>2.233793820099582E-3</v>
       </c>
       <c r="S2">
-        <v>7.5714478536197856</v>
+        <v>2.8546892253754549E-3</v>
       </c>
       <c r="T2">
-        <v>6.6575733506510248</v>
+        <v>2.4429784541928371E-3</v>
       </c>
       <c r="U2">
-        <v>4.5974452610230312</v>
+        <v>1.5901509309586171E-3</v>
       </c>
       <c r="V2">
-        <v>4.7388218427911868</v>
+        <v>1.4835856413521139E-3</v>
       </c>
       <c r="W2">
-        <v>4.4612055379842772</v>
+        <v>1.518678300993053E-3</v>
       </c>
       <c r="X2">
-        <v>4.8254534039709558</v>
+        <v>1.319503470964406E-3</v>
       </c>
       <c r="Y2">
-        <v>4.9291259357037358</v>
+        <v>1.4326180735029089E-3</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -644,76 +644,76 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>5.630696399834501</v>
+        <v>2.2182515510517742E-3</v>
       </c>
       <c r="C3">
-        <v>8.8902644234721055</v>
+        <v>3.173601613582531E-3</v>
       </c>
       <c r="D3">
-        <v>11.429832380876871</v>
+        <v>3.9816151509354308E-3</v>
       </c>
       <c r="E3">
-        <v>12.9928804721952</v>
+        <v>4.3332842718435266E-3</v>
       </c>
       <c r="F3">
-        <v>12.48383927941199</v>
+        <v>4.2349393443611941E-3</v>
       </c>
       <c r="G3">
-        <v>12.37926837418242</v>
+        <v>4.2412646841653396E-3</v>
       </c>
       <c r="H3">
-        <v>12.036705296980911</v>
+        <v>4.2780417040042991E-3</v>
       </c>
       <c r="I3">
-        <v>10.40984955317448</v>
+        <v>3.411872892606669E-3</v>
       </c>
       <c r="J3">
-        <v>6.0564276947351008</v>
+        <v>1.656535643443757E-3</v>
       </c>
       <c r="K3">
-        <v>2.0078224774679141</v>
+        <v>6.1641396177434886E-4</v>
       </c>
       <c r="L3">
-        <v>2.241881667739416</v>
+        <v>7.5860239443886562E-4</v>
       </c>
       <c r="M3">
-        <v>2.1550574916090781</v>
+        <v>6.6610346314219314E-4</v>
       </c>
       <c r="N3">
-        <v>2.1868175174297462</v>
+        <v>7.1860541733375759E-4</v>
       </c>
       <c r="O3">
-        <v>2.0570515714246138</v>
+        <v>6.7386519010039707E-4</v>
       </c>
       <c r="P3">
-        <v>2.3552888118098139</v>
+        <v>7.1106379189026035E-4</v>
       </c>
       <c r="Q3">
-        <v>3.3347905179173081</v>
+        <v>1.0420135286925299E-3</v>
       </c>
       <c r="R3">
-        <v>7.175804747662645</v>
+        <v>2.533853146468036E-3</v>
       </c>
       <c r="S3">
-        <v>8.2074410235759494</v>
+        <v>3.0249029750430922E-3</v>
       </c>
       <c r="T3">
-        <v>6.962512671475162</v>
+        <v>2.3742256405209061E-3</v>
       </c>
       <c r="U3">
-        <v>5.5199852952303976</v>
+        <v>1.754644791513706E-3</v>
       </c>
       <c r="V3">
-        <v>4.8373061583312209</v>
+        <v>1.744586810455989E-3</v>
       </c>
       <c r="W3">
-        <v>4.4577194859677496</v>
+        <v>1.5098433665626089E-3</v>
       </c>
       <c r="X3">
-        <v>4.607032613481242</v>
+        <v>1.6059424990612361E-3</v>
       </c>
       <c r="Y3">
-        <v>4.7721685535633904</v>
+        <v>1.8185177121701731E-3</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -721,76 +721,76 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>5.2616270807323469</v>
+        <v>1.857015933483967E-3</v>
       </c>
       <c r="C4">
-        <v>8.7015461992031558</v>
+        <v>2.9644536135766588E-3</v>
       </c>
       <c r="D4">
-        <v>11.0436847861837</v>
+        <v>3.7157885357490998E-3</v>
       </c>
       <c r="E4">
-        <v>12.81237662881615</v>
+        <v>3.9744364851484306E-3</v>
       </c>
       <c r="F4">
-        <v>12.54258062259462</v>
+        <v>4.2422168295416923E-3</v>
       </c>
       <c r="G4">
-        <v>11.92053258740628</v>
+        <v>3.9712214238392541E-3</v>
       </c>
       <c r="H4">
-        <v>12.24077288704029</v>
+        <v>3.9038297805782511E-3</v>
       </c>
       <c r="I4">
-        <v>10.551764765449169</v>
+        <v>3.4975751425848751E-3</v>
       </c>
       <c r="J4">
-        <v>7.0361338740754258</v>
+        <v>2.2230172505379431E-3</v>
       </c>
       <c r="K4">
-        <v>2.0881679690725492</v>
+        <v>7.6543987084409977E-4</v>
       </c>
       <c r="L4">
-        <v>2.1828512485349609</v>
+        <v>8.0065607623050798E-4</v>
       </c>
       <c r="M4">
-        <v>2.0979366183482768</v>
+        <v>7.6920450169637574E-4</v>
       </c>
       <c r="N4">
-        <v>1.9700779474735111</v>
+        <v>6.8729360683034352E-4</v>
       </c>
       <c r="O4">
-        <v>1.923146460554735</v>
+        <v>6.411698799709477E-4</v>
       </c>
       <c r="P4">
-        <v>2.27208740463242</v>
+        <v>8.6570704992020204E-4</v>
       </c>
       <c r="Q4">
-        <v>3.3267345018207579</v>
+        <v>1.1292325262993899E-3</v>
       </c>
       <c r="R4">
-        <v>6.3587840220084413</v>
+        <v>2.045089353452528E-3</v>
       </c>
       <c r="S4">
-        <v>8.1554422730348843</v>
+        <v>2.6489304384507552E-3</v>
       </c>
       <c r="T4">
-        <v>6.7634352857868452</v>
+        <v>2.407944497540671E-3</v>
       </c>
       <c r="U4">
-        <v>5.0333511413338119</v>
+        <v>1.684015591231229E-3</v>
       </c>
       <c r="V4">
-        <v>4.9659467816194018</v>
+        <v>1.7353956112034659E-3</v>
       </c>
       <c r="W4">
-        <v>5.0180017191633652</v>
+        <v>1.588496469247157E-3</v>
       </c>
       <c r="X4">
-        <v>5.0218837955737126</v>
+        <v>1.724301333997607E-3</v>
       </c>
       <c r="Y4">
-        <v>5.146110876139093</v>
+        <v>1.713696468870248E-3</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -798,76 +798,76 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>5.0959349209529998</v>
+        <v>1.418514809849E-3</v>
       </c>
       <c r="C5">
-        <v>8.9454970636030016</v>
+        <v>2.5414477671100002E-3</v>
       </c>
       <c r="D5">
-        <v>11.466631560938</v>
+        <v>3.491639864874E-3</v>
       </c>
       <c r="E5">
-        <v>12.427530005496999</v>
+        <v>3.7954979581419999E-3</v>
       </c>
       <c r="F5">
-        <v>12.230036777425999</v>
+        <v>4.1672286792789988E-3</v>
       </c>
       <c r="G5">
-        <v>11.988523197237001</v>
+        <v>3.9921510870120002E-3</v>
       </c>
       <c r="H5">
-        <v>11.519173209968001</v>
+        <v>3.9029795664110001E-3</v>
       </c>
       <c r="I5">
-        <v>10.038284512351</v>
+        <v>3.271421732513E-3</v>
       </c>
       <c r="J5">
-        <v>6.3943294027490012</v>
+        <v>1.9716194766119998E-3</v>
       </c>
       <c r="K5">
-        <v>2.0571099840930001</v>
+        <v>7.2183461365200006E-4</v>
       </c>
       <c r="L5">
-        <v>2.3989004091499999</v>
+        <v>8.2924712095300008E-4</v>
       </c>
       <c r="M5">
-        <v>2.1540666943089999</v>
+        <v>7.4343286728300001E-4</v>
       </c>
       <c r="N5">
-        <v>2.093868827129</v>
+        <v>7.3841155397399993E-4</v>
       </c>
       <c r="O5">
-        <v>2.093400194699</v>
+        <v>6.6914374551899991E-4</v>
       </c>
       <c r="P5">
-        <v>2.116929155307</v>
+        <v>7.371493767420001E-4</v>
       </c>
       <c r="Q5">
-        <v>3.3357944154600001</v>
+        <v>1.1426559258299999E-3</v>
       </c>
       <c r="R5">
-        <v>6.6228183952140007</v>
+        <v>2.1978332144079989E-3</v>
       </c>
       <c r="S5">
-        <v>7.9753794585800009</v>
+        <v>2.7282657833200001E-3</v>
       </c>
       <c r="T5">
-        <v>6.9535121830350004</v>
+        <v>2.5239331691980001E-3</v>
       </c>
       <c r="U5">
-        <v>5.3101724944239992</v>
+        <v>1.87427953349E-3</v>
       </c>
       <c r="V5">
-        <v>4.5298664990710007</v>
+        <v>1.4257551681880001E-3</v>
       </c>
       <c r="W5">
-        <v>4.4426511416099999</v>
+        <v>1.3724093183069999E-3</v>
       </c>
       <c r="X5">
-        <v>4.4777457349859997</v>
+        <v>1.4474236247009999E-3</v>
       </c>
       <c r="Y5">
-        <v>4.3815292028530006</v>
+        <v>1.4459278290909999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -875,76 +875,76 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>5.1417018532240002</v>
+        <v>1.5911146456219999E-3</v>
       </c>
       <c r="C6">
-        <v>8.3619375769669997</v>
+        <v>2.7512640109350001E-3</v>
       </c>
       <c r="D6">
-        <v>11.627282595244999</v>
+        <v>3.8077834740520011E-3</v>
       </c>
       <c r="E6">
-        <v>12.195341755356999</v>
+        <v>3.655786648078E-3</v>
       </c>
       <c r="F6">
-        <v>11.776550832693999</v>
+        <v>3.7447771075900002E-3</v>
       </c>
       <c r="G6">
-        <v>12.082087823665001</v>
+        <v>3.9389700965549992E-3</v>
       </c>
       <c r="H6">
-        <v>11.327103599293</v>
+        <v>3.604599712553001E-3</v>
       </c>
       <c r="I6">
-        <v>9.7356794807049987</v>
+        <v>3.090590593745E-3</v>
       </c>
       <c r="J6">
-        <v>6.5219792919779991</v>
+        <v>1.946462068103E-3</v>
       </c>
       <c r="K6">
-        <v>2.0266851530609999</v>
+        <v>6.51915828197E-4</v>
       </c>
       <c r="L6">
-        <v>2.3834753198429999</v>
+        <v>7.9816451798400028E-4</v>
       </c>
       <c r="M6">
-        <v>2.0548685223710002</v>
+        <v>6.5605491202599996E-4</v>
       </c>
       <c r="N6">
-        <v>2.0896702696410001</v>
+        <v>6.5992139121499979E-4</v>
       </c>
       <c r="O6">
-        <v>1.9627590416039999</v>
+        <v>6.1723812687899992E-4</v>
       </c>
       <c r="P6">
-        <v>2.2283393669159999</v>
+        <v>6.5609161090599997E-4</v>
       </c>
       <c r="Q6">
-        <v>3.5549263110729998</v>
+        <v>1.11867907095E-3</v>
       </c>
       <c r="R6">
-        <v>6.0816126206019998</v>
+        <v>1.9612899868239999E-3</v>
       </c>
       <c r="S6">
-        <v>7.3292479103339989</v>
+        <v>2.7093170701510002E-3</v>
       </c>
       <c r="T6">
-        <v>6.4661305338179993</v>
+        <v>2.472624577271999E-3</v>
       </c>
       <c r="U6">
-        <v>5.7947992308340002</v>
+        <v>2.2632496777990011E-3</v>
       </c>
       <c r="V6">
-        <v>4.8494102538209987</v>
+        <v>1.694842996988E-3</v>
       </c>
       <c r="W6">
-        <v>5.1852659470239999</v>
+        <v>1.7243008644880001E-3</v>
       </c>
       <c r="X6">
-        <v>4.7405889142270006</v>
+        <v>1.6292835817290001E-3</v>
       </c>
       <c r="Y6">
-        <v>4.3413153068499986</v>
+        <v>1.372874829943E-3</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -952,76 +952,76 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>5.3079255950190003</v>
+        <v>1.5493960480040001E-3</v>
       </c>
       <c r="C7">
-        <v>8.870632848951999</v>
+        <v>3.0133147903550002E-3</v>
       </c>
       <c r="D7">
-        <v>11.647560687405001</v>
+        <v>3.757880280763E-3</v>
       </c>
       <c r="E7">
-        <v>12.483980727838</v>
+        <v>4.2726126439400014E-3</v>
       </c>
       <c r="F7">
-        <v>12.734710072532</v>
+        <v>4.169405633458999E-3</v>
       </c>
       <c r="G7">
-        <v>12.299632494534</v>
+        <v>4.1896329660089998E-3</v>
       </c>
       <c r="H7">
-        <v>12.128995709178</v>
+        <v>3.8790597907169999E-3</v>
       </c>
       <c r="I7">
-        <v>10.319059881793001</v>
+        <v>3.2955306890500012E-3</v>
       </c>
       <c r="J7">
-        <v>6.1543649979620003</v>
+        <v>1.9991193551449999E-3</v>
       </c>
       <c r="K7">
-        <v>2.0936557021639999</v>
+        <v>6.1983667689500003E-4</v>
       </c>
       <c r="L7">
-        <v>2.3870295210260002</v>
+        <v>6.7442457213200005E-4</v>
       </c>
       <c r="M7">
-        <v>2.238401574924</v>
+        <v>7.3336826047300002E-4</v>
       </c>
       <c r="N7">
-        <v>2.0086148132030002</v>
+        <v>7.0013696506300007E-4</v>
       </c>
       <c r="O7">
-        <v>2.0222847014080001</v>
+        <v>6.7679282102299997E-4</v>
       </c>
       <c r="P7">
-        <v>2.1493324084809999</v>
+        <v>7.4901830001399992E-4</v>
       </c>
       <c r="Q7">
-        <v>3.7126071794279998</v>
+        <v>1.1070357551900001E-3</v>
       </c>
       <c r="R7">
-        <v>6.7011470820140007</v>
+        <v>2.1172892862549998E-3</v>
       </c>
       <c r="S7">
-        <v>7.5691123668110016</v>
+        <v>2.3927390467649999E-3</v>
       </c>
       <c r="T7">
-        <v>6.5511516228130002</v>
+        <v>2.1820699606729999E-3</v>
       </c>
       <c r="U7">
-        <v>5.570247439250001</v>
+        <v>1.723274205673E-3</v>
       </c>
       <c r="V7">
-        <v>4.8284496440479998</v>
+        <v>1.395815964558E-3</v>
       </c>
       <c r="W7">
-        <v>5.1693303057470006</v>
+        <v>1.7143678644499999E-3</v>
       </c>
       <c r="X7">
-        <v>4.725044571562</v>
+        <v>1.475626724847E-3</v>
       </c>
       <c r="Y7">
-        <v>4.4894375615840003</v>
+        <v>1.3843501317620001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1029,76 +1029,76 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>5.2489847903150002</v>
+        <v>1.632809828364E-3</v>
       </c>
       <c r="C8">
-        <v>8.4710025787969983</v>
+        <v>2.7997640273159999E-3</v>
       </c>
       <c r="D8">
-        <v>11.248603960788</v>
+        <v>3.7115526306609999E-3</v>
       </c>
       <c r="E8">
-        <v>12.865136146176001</v>
+        <v>4.6885091143850002E-3</v>
       </c>
       <c r="F8">
-        <v>12.808380915939001</v>
+        <v>4.0825467613460004E-3</v>
       </c>
       <c r="G8">
-        <v>12.201514059987</v>
+        <v>3.8046392928860009E-3</v>
       </c>
       <c r="H8">
-        <v>12.135934908262</v>
+        <v>3.9758128206910008E-3</v>
       </c>
       <c r="I8">
-        <v>10.648899770271999</v>
+        <v>3.165466826278E-3</v>
       </c>
       <c r="J8">
-        <v>6.7116728479810002</v>
+        <v>1.8644706101139999E-3</v>
       </c>
       <c r="K8">
-        <v>2.3460181622470002</v>
+        <v>8.6542018286400008E-4</v>
       </c>
       <c r="L8">
-        <v>2.408425874088</v>
+        <v>8.8587413886799993E-4</v>
       </c>
       <c r="M8">
-        <v>1.9619027839959999</v>
+        <v>6.4939523214099988E-4</v>
       </c>
       <c r="N8">
-        <v>1.8663760218259999</v>
+        <v>6.4741117260699995E-4</v>
       </c>
       <c r="O8">
-        <v>1.8950379070029999</v>
+        <v>6.6185920310700007E-4</v>
       </c>
       <c r="P8">
-        <v>2.2156942088429998</v>
+        <v>7.8021638871900016E-4</v>
       </c>
       <c r="Q8">
-        <v>3.4793884170629998</v>
+        <v>1.3755380118859999E-3</v>
       </c>
       <c r="R8">
-        <v>7.4542503963859996</v>
+        <v>2.5771034347100001E-3</v>
       </c>
       <c r="S8">
-        <v>8.1716021240340009</v>
+        <v>2.8085886991460001E-3</v>
       </c>
       <c r="T8">
-        <v>6.6802207871440009</v>
+        <v>2.2626990735879998E-3</v>
       </c>
       <c r="U8">
-        <v>4.9240006541229997</v>
+        <v>1.5091866268949999E-3</v>
       </c>
       <c r="V8">
-        <v>4.1671183351019998</v>
+        <v>1.3315535506500001E-3</v>
       </c>
       <c r="W8">
-        <v>4.1095181698480001</v>
+        <v>1.2783102208149999E-3</v>
       </c>
       <c r="X8">
-        <v>4.5468509978920011</v>
+        <v>1.2782212481440001E-3</v>
       </c>
       <c r="Y8">
-        <v>4.1505876369770007</v>
+        <v>1.178914918167E-3</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -1106,76 +1106,76 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>5.4441310356499999</v>
+        <v>1.9621517346350001E-3</v>
       </c>
       <c r="C9">
-        <v>8.6828873740220001</v>
+        <v>2.9977989353869999E-3</v>
       </c>
       <c r="D9">
-        <v>11.324108481903</v>
+        <v>4.0429767675550007E-3</v>
       </c>
       <c r="E9">
-        <v>12.025651256052001</v>
+        <v>3.9835031252959986E-3</v>
       </c>
       <c r="F9">
-        <v>12.211190817469999</v>
+        <v>4.4925235829370008E-3</v>
       </c>
       <c r="G9">
-        <v>11.39206505788</v>
+        <v>4.2077356763540004E-3</v>
       </c>
       <c r="H9">
-        <v>11.835321416796999</v>
+        <v>4.1518327522889996E-3</v>
       </c>
       <c r="I9">
-        <v>10.080355903834</v>
+        <v>3.2602060219170002E-3</v>
       </c>
       <c r="J9">
-        <v>6.1560276145559998</v>
+        <v>1.8477646466479999E-3</v>
       </c>
       <c r="K9">
-        <v>2.2966949691349998</v>
+        <v>7.5955112801599995E-4</v>
       </c>
       <c r="L9">
-        <v>2.652868147635</v>
+        <v>1.0063876328659999E-3</v>
       </c>
       <c r="M9">
-        <v>2.1804388328709998</v>
+        <v>7.8232631991500016E-4</v>
       </c>
       <c r="N9">
-        <v>2.0586268141740001</v>
+        <v>7.1707051541900001E-4</v>
       </c>
       <c r="O9">
-        <v>2.0107511976920001</v>
+        <v>6.7071528035199997E-4</v>
       </c>
       <c r="P9">
-        <v>2.1630096043739999</v>
+        <v>7.0705202801400009E-4</v>
       </c>
       <c r="Q9">
-        <v>3.1956839515539999</v>
+        <v>1.024089309738E-3</v>
       </c>
       <c r="R9">
-        <v>6.0992119685760002</v>
+        <v>2.0480391574540001E-3</v>
       </c>
       <c r="S9">
-        <v>7.6065367043309999</v>
+        <v>2.9981429545100002E-3</v>
       </c>
       <c r="T9">
-        <v>6.8826824417339996</v>
+        <v>2.4124015487479999E-3</v>
       </c>
       <c r="U9">
-        <v>5.1143340412320004</v>
+        <v>2.0433350004570002E-3</v>
       </c>
       <c r="V9">
-        <v>4.6950366353020012</v>
+        <v>1.720511282226E-3</v>
       </c>
       <c r="W9">
-        <v>4.742609029322999</v>
+        <v>1.7942396112319999E-3</v>
       </c>
       <c r="X9">
-        <v>4.6705024382670004</v>
+        <v>1.6541300742199999E-3</v>
       </c>
       <c r="Y9">
-        <v>4.5228411690910004</v>
+        <v>1.6669653741759991E-3</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1183,76 +1183,76 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>5.0696044266700007</v>
+        <v>1.517630002519E-3</v>
       </c>
       <c r="C10">
-        <v>8.3789909773099982</v>
+        <v>2.8513698323140001E-3</v>
       </c>
       <c r="D10">
-        <v>11.475641552264999</v>
+        <v>4.1345150096919999E-3</v>
       </c>
       <c r="E10">
-        <v>12.248394736052999</v>
+        <v>4.1749011767210006E-3</v>
       </c>
       <c r="F10">
-        <v>12.126460907393</v>
+        <v>3.9518401375220006E-3</v>
       </c>
       <c r="G10">
-        <v>11.91674281977</v>
+        <v>3.775411438841999E-3</v>
       </c>
       <c r="H10">
-        <v>12.441764505965001</v>
+        <v>3.864272756055E-3</v>
       </c>
       <c r="I10">
-        <v>10.390058377062999</v>
+        <v>3.4724837635499999E-3</v>
       </c>
       <c r="J10">
-        <v>6.7231102355320003</v>
+        <v>2.3544840764450001E-3</v>
       </c>
       <c r="K10">
-        <v>2.215318079597</v>
+        <v>7.2210729676599995E-4</v>
       </c>
       <c r="L10">
-        <v>2.2897629627830001</v>
+        <v>7.800319156869999E-4</v>
       </c>
       <c r="M10">
-        <v>2.0623938023849999</v>
+        <v>6.5537266636099989E-4</v>
       </c>
       <c r="N10">
-        <v>2.085482681112</v>
+        <v>6.6780140437900011E-4</v>
       </c>
       <c r="O10">
-        <v>1.946243715519</v>
+        <v>6.2782345826599992E-4</v>
       </c>
       <c r="P10">
-        <v>2.2793970457279999</v>
+        <v>7.217094086539997E-4</v>
       </c>
       <c r="Q10">
-        <v>3.7188972785719998</v>
+        <v>1.2577923359009999E-3</v>
       </c>
       <c r="R10">
-        <v>6.4309837102519998</v>
+        <v>2.1392286250720011E-3</v>
       </c>
       <c r="S10">
-        <v>7.5264582309239998</v>
+        <v>2.6195218885849999E-3</v>
       </c>
       <c r="T10">
-        <v>6.9765230073150004</v>
+        <v>2.6790969166299999E-3</v>
       </c>
       <c r="U10">
-        <v>5.2356269208460002</v>
+        <v>1.839984645745E-3</v>
       </c>
       <c r="V10">
-        <v>4.8791610150729996</v>
+        <v>1.588300828625E-3</v>
       </c>
       <c r="W10">
-        <v>4.8174182534419998</v>
+        <v>1.5390322197360001E-3</v>
       </c>
       <c r="X10">
-        <v>4.709119703332</v>
+        <v>1.701270810472E-3</v>
       </c>
       <c r="Y10">
-        <v>4.209361386144999</v>
+        <v>1.4626542610090001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +1261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9519B0C8-BB69-478D-88C8-71A8DE102D9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F5740D-A887-4424-AE05-46591595A300}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
